--- a/data/trans_orig/P36B01-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P36B01-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>148198</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>125322</v>
+        <v>125207</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>171896</v>
+        <v>171382</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1314914171950556</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1111943086976506</v>
+        <v>0.1110923867717588</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1525184091066619</v>
+        <v>0.1520621634659818</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>132</v>
@@ -762,19 +762,19 @@
         <v>137487</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>116916</v>
+        <v>115448</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>162092</v>
+        <v>163638</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1094038298448253</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09303499413233886</v>
+        <v>0.09186626927363915</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1289826814147323</v>
+        <v>0.1302133653182019</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>273</v>
@@ -783,19 +783,19 @@
         <v>285685</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>252755</v>
+        <v>256086</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>320620</v>
+        <v>320001</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1198469987433597</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1060326199650544</v>
+        <v>0.1074301469028809</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1345027965906185</v>
+        <v>0.1342430619282693</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>17134</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10764</v>
+        <v>10335</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>28293</v>
+        <v>27466</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01520265151011913</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.009550463635241554</v>
+        <v>0.00916970844356611</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02510392509435758</v>
+        <v>0.02436969538046017</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>15</v>
@@ -833,19 +833,19 @@
         <v>15534</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8940</v>
+        <v>8875</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>25292</v>
+        <v>24418</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01236096674081755</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.007113733272476968</v>
+        <v>0.007062124623175201</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02012551504787195</v>
+        <v>0.01943052566218017</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>31</v>
@@ -854,19 +854,19 @@
         <v>32668</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>23603</v>
+        <v>22348</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>46236</v>
+        <v>45520</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0137045355757315</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.009901625887217269</v>
+        <v>0.00937517636585943</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0193962859175867</v>
+        <v>0.01909593212588612</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>17473</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9749</v>
+        <v>9802</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>28372</v>
+        <v>28625</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01550360249521971</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.008649697734537795</v>
+        <v>0.008696992850419513</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02517401951634496</v>
+        <v>0.0253978040761914</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>13</v>
@@ -904,19 +904,19 @@
         <v>12871</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6737</v>
+        <v>7232</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>20967</v>
+        <v>21818</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01024217441107911</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.005360695821240155</v>
+        <v>0.005754494653075401</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01668400819711713</v>
+        <v>0.01736119239036041</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>28</v>
@@ -925,19 +925,19 @@
         <v>30345</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>20435</v>
+        <v>21001</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>43715</v>
+        <v>43965</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0127298151506006</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.008572719685778081</v>
+        <v>0.00881002932380549</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0183389659863353</v>
+        <v>0.01844373268386302</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>21373</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13170</v>
+        <v>13275</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32596</v>
+        <v>32781</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01896395844775701</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01168532790548964</v>
+        <v>0.01177860709676035</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02892108926859178</v>
+        <v>0.02908570106020596</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>23</v>
@@ -975,19 +975,19 @@
         <v>23143</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14910</v>
+        <v>14943</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>34046</v>
+        <v>33902</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01841608529885324</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01186478324861744</v>
+        <v>0.01189051485307354</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02709181751437442</v>
+        <v>0.02697723589406515</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>43</v>
@@ -996,19 +996,19 @@
         <v>44517</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>33401</v>
+        <v>32728</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>58701</v>
+        <v>58928</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01867512363283924</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01401208018877575</v>
+        <v>0.01372949141718617</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02462546435758054</v>
+        <v>0.02472096251240416</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>922873</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>895866</v>
+        <v>895178</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>947815</v>
+        <v>947425</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8188383703518486</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7948764427866751</v>
+        <v>0.7942655204655213</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8409692834459929</v>
+        <v>0.8406233630703732</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1002</v>
@@ -1046,19 +1046,19 @@
         <v>1067657</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1039886</v>
+        <v>1040215</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1090198</v>
+        <v>1091997</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8495769437044248</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8274782681984731</v>
+        <v>0.82774021466003</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8675134374119458</v>
+        <v>0.8689450338397376</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1875</v>
@@ -1067,19 +1067,19 @@
         <v>1990531</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1952474</v>
+        <v>1953451</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2025847</v>
+        <v>2027616</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.835043526897469</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8190784033349767</v>
+        <v>0.8194881114791864</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.849859064633838</v>
+        <v>0.8506008995548676</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>116314</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>98033</v>
+        <v>97182</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>138354</v>
+        <v>140597</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.127982544722718</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1078680038655135</v>
+        <v>0.106931825544262</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1522336012285774</v>
+        <v>0.1547024857620935</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>130</v>
@@ -1192,19 +1192,19 @@
         <v>135888</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>115257</v>
+        <v>115161</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>159696</v>
+        <v>159001</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1352774387478953</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1147386099483791</v>
+        <v>0.1146434312538312</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1589785577949495</v>
+        <v>0.1582861670489349</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>243</v>
@@ -1213,19 +1213,19 @@
         <v>252202</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>221580</v>
+        <v>224454</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>281728</v>
+        <v>283389</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1318124068918799</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1158078220098726</v>
+        <v>0.1173100989009282</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.147244240713102</v>
+        <v>0.1481121594880416</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>22367</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>13597</v>
+        <v>14596</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>32211</v>
+        <v>34330</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02461044218179928</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0149613409807666</v>
+        <v>0.01606007585550366</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0354423565439984</v>
+        <v>0.03777401208400863</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>18</v>
@@ -1263,19 +1263,19 @@
         <v>17409</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>10593</v>
+        <v>10377</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>27433</v>
+        <v>27083</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01733122586820813</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01054497000165818</v>
+        <v>0.01033027485851176</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02731013915286294</v>
+        <v>0.02696172394901747</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>41</v>
@@ -1284,19 +1284,19 @@
         <v>39776</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>28929</v>
+        <v>29415</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>53364</v>
+        <v>52362</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02078881090321587</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0151194957926738</v>
+        <v>0.01537339392917925</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02789059618903797</v>
+        <v>0.0273666233030895</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>15096</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8667</v>
+        <v>8491</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>25793</v>
+        <v>23783</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01660995679631447</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.009536034662890689</v>
+        <v>0.009342548558297754</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02838096714177467</v>
+        <v>0.02616888007761491</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>16</v>
@@ -1334,19 +1334,19 @@
         <v>16422</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>9892</v>
+        <v>9524</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>25282</v>
+        <v>25927</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01634792720316508</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.009847950180780787</v>
+        <v>0.009481559980477311</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02516860188422212</v>
+        <v>0.0258100654099907</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>30</v>
@@ -1355,19 +1355,19 @@
         <v>31517</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>21447</v>
+        <v>21533</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>43541</v>
+        <v>44116</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01647238972233915</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01120942567063358</v>
+        <v>0.01125429737344063</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02275680799166697</v>
+        <v>0.02305687971938231</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>21371</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13716</v>
+        <v>14095</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>31794</v>
+        <v>31857</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02351466565223204</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01509237580338088</v>
+        <v>0.01550939497324242</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03498392630300172</v>
+        <v>0.03505254695693246</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -1405,19 +1405,19 @@
         <v>13007</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7112</v>
+        <v>6970</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>22573</v>
+        <v>21694</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0129490250986632</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.007080098274145687</v>
+        <v>0.006939075460949514</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02247179651966181</v>
+        <v>0.02159613605225482</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>34</v>
@@ -1426,19 +1426,19 @@
         <v>34378</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>24135</v>
+        <v>23972</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>47538</v>
+        <v>46771</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01796764236314561</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01261423663087868</v>
+        <v>0.01252890927644982</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02484534223173009</v>
+        <v>0.02444457215656842</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>733678</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>710682</v>
+        <v>708917</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>756533</v>
+        <v>756478</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8072823906469363</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7819785801504583</v>
+        <v>0.7800370218398263</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8324299984059679</v>
+        <v>0.8323689646392177</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>772</v>
@@ -1476,19 +1476,19 @@
         <v>821787</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>796274</v>
+        <v>796897</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>844346</v>
+        <v>844737</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8180943830820683</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7926958386696058</v>
+        <v>0.7933160863801414</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8405518290017252</v>
+        <v>0.840940929780402</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1482</v>
@@ -1497,19 +1497,19 @@
         <v>1555466</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1525207</v>
+        <v>1522018</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1589686</v>
+        <v>1589759</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8129587501194195</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7971440926002189</v>
+        <v>0.7954772647923171</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8308436891793423</v>
+        <v>0.8308818931879792</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>129183</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>107367</v>
+        <v>109727</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>152510</v>
+        <v>152406</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1570031557314385</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1304882125818881</v>
+        <v>0.1333562628710817</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1853528742849318</v>
+        <v>0.1852268470108054</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>111</v>
@@ -1622,19 +1622,19 @@
         <v>114946</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>96754</v>
+        <v>97371</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>136632</v>
+        <v>137104</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1496937397582505</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1260015019542456</v>
+        <v>0.1268061113654593</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.177935193965143</v>
+        <v>0.1785492223290326</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>235</v>
@@ -1643,19 +1643,19 @@
         <v>244130</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>215007</v>
+        <v>219109</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>272778</v>
+        <v>278651</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1534746555272768</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1351661085384017</v>
+        <v>0.137744751886187</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1714847710783326</v>
+        <v>0.1751766508942168</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>16081</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9081</v>
+        <v>8820</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>27236</v>
+        <v>25216</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01954349200413376</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01103637446440703</v>
+        <v>0.010719263811361</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03310187962139176</v>
+        <v>0.03064672273677584</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>12</v>
@@ -1693,19 +1693,19 @@
         <v>11706</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6476</v>
+        <v>5897</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>20520</v>
+        <v>19485</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01524461926482595</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.008433931344683072</v>
+        <v>0.007680062354481079</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02672313685869305</v>
+        <v>0.02537564271384381</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>27</v>
@@ -1714,19 +1714,19 @@
         <v>27787</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>18704</v>
+        <v>17634</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>38780</v>
+        <v>38309</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01746828197450171</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01175828673993341</v>
+        <v>0.01108580981845662</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02437952280314765</v>
+        <v>0.02408306300360216</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>22320</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13911</v>
+        <v>14359</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>32462</v>
+        <v>33194</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02712643163279508</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01690693100780242</v>
+        <v>0.01745077197748463</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03945294032373656</v>
+        <v>0.04034251089666921</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>12</v>
@@ -1764,19 +1764,19 @@
         <v>12805</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6932</v>
+        <v>6811</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>22577</v>
+        <v>21921</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01667595641029821</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.009027573352128586</v>
+        <v>0.008870385968267388</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02940229981843958</v>
+        <v>0.02854797676399796</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>34</v>
@@ -1785,19 +1785,19 @@
         <v>35125</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>24156</v>
+        <v>25120</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>47502</v>
+        <v>49170</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02208163679673332</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01518598308382318</v>
+        <v>0.01579182378967737</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02986232650070289</v>
+        <v>0.03091149794634307</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>27150</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>18510</v>
+        <v>17514</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>42807</v>
+        <v>39584</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0329963949664744</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02249591389359827</v>
+        <v>0.02128522329661521</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05202540363660615</v>
+        <v>0.04810886891508254</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>19</v>
@@ -1835,19 +1835,19 @@
         <v>20836</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12721</v>
+        <v>13292</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>31678</v>
+        <v>32463</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02713453657070252</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01656616963854149</v>
+        <v>0.01731017153984979</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04125354151206832</v>
+        <v>0.04227682309561777</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>44</v>
@@ -1856,19 +1856,19 @@
         <v>47986</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>35938</v>
+        <v>34371</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>63619</v>
+        <v>63632</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03016667934731715</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02259286411580298</v>
+        <v>0.02160776049944245</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03999493784974496</v>
+        <v>0.04000286473710001</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>628074</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>600055</v>
+        <v>601323</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>650871</v>
+        <v>652904</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7633305256651582</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7292775831030174</v>
+        <v>0.7308176812424038</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7910363353073264</v>
+        <v>0.7935067679608927</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>571</v>
@@ -1906,19 +1906,19 @@
         <v>607584</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>580289</v>
+        <v>582183</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>627993</v>
+        <v>629211</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7912511479959229</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7557061466383899</v>
+        <v>0.7581722962512155</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8178300584790621</v>
+        <v>0.8194169133076893</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1171</v>
@@ -1927,19 +1927,19 @@
         <v>1235658</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1201441</v>
+        <v>1198522</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1267430</v>
+        <v>1268266</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.776808746354171</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7552979850680385</v>
+        <v>0.7534629848356619</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7967825742434022</v>
+        <v>0.7973083465929985</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>76637</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>61073</v>
+        <v>61081</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>95012</v>
+        <v>94941</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.151767477829141</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1209455849603917</v>
+        <v>0.120961266579796</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.188154718963346</v>
+        <v>0.188015352714263</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>63</v>
@@ -2052,19 +2052,19 @@
         <v>65219</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>50385</v>
+        <v>50552</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>82091</v>
+        <v>80093</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1340911455534259</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1035936262299316</v>
+        <v>0.1039353966475429</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1687822641724802</v>
+        <v>0.1646736678514649</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>135</v>
@@ -2073,19 +2073,19 @@
         <v>141856</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>120158</v>
+        <v>119782</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>166014</v>
+        <v>164086</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1430950547122332</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1212073319348923</v>
+        <v>0.1208278911861869</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1674641776278093</v>
+        <v>0.165519148742349</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>9187</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4909</v>
+        <v>4134</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>17364</v>
+        <v>16533</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01819377871960831</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.00972060600993053</v>
+        <v>0.008186898585530978</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03438638787206826</v>
+        <v>0.03274129382841682</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3</v>
@@ -2123,19 +2123,19 @@
         <v>3611</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>10365</v>
+        <v>11011</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.007423660200043271</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.00198451971010932</v>
+        <v>0.001970908300891678</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02131173963531783</v>
+        <v>0.02263952150240316</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>12</v>
@@ -2144,19 +2144,19 @@
         <v>12798</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6984</v>
+        <v>6823</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>21623</v>
+        <v>22428</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01290970601923056</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.007045069763814645</v>
+        <v>0.006882382751380034</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02181175454229173</v>
+        <v>0.02262373776503198</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>16008</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9538</v>
+        <v>8808</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>25757</v>
+        <v>25295</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03170206810330645</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0188881789276916</v>
+        <v>0.01744376083225592</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05100768562118618</v>
+        <v>0.05009159718675543</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>12</v>
@@ -2194,19 +2194,19 @@
         <v>11674</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>6134</v>
+        <v>5744</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>20031</v>
+        <v>19602</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02400170917981348</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01261141060151477</v>
+        <v>0.01180968210725711</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04118360053602149</v>
+        <v>0.04030134309085989</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>27</v>
@@ -2215,19 +2215,19 @@
         <v>27682</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>17765</v>
+        <v>18699</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>39918</v>
+        <v>38989</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02792409144531303</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01792002637731671</v>
+        <v>0.0188625996211249</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04026629007413447</v>
+        <v>0.03932956735625292</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>12775</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7109</v>
+        <v>6739</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>21379</v>
+        <v>21903</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02529893468449703</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01407827370407675</v>
+        <v>0.01334562048514661</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04233767883638841</v>
+        <v>0.0433749123063542</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>12</v>
@@ -2265,19 +2265,19 @@
         <v>14190</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>8013</v>
+        <v>7866</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>24844</v>
+        <v>24904</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02917492208587592</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0164757455351028</v>
+        <v>0.01617181894608806</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05107920535416589</v>
+        <v>0.05120238097165201</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>24</v>
@@ -2286,19 +2286,19 @@
         <v>26965</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>17597</v>
+        <v>17015</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>39591</v>
+        <v>40289</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02720058499386257</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01775030760658269</v>
+        <v>0.01716321300052571</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03993689470350912</v>
+        <v>0.04064072420134114</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>390357</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>368425</v>
+        <v>368480</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>409169</v>
+        <v>409133</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7730377406634472</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7296059418112791</v>
+        <v>0.7297132412609068</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8102909157001434</v>
+        <v>0.8102200293351967</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>362</v>
@@ -2336,19 +2336,19 @@
         <v>391682</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>370806</v>
+        <v>373774</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>408407</v>
+        <v>409149</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8053085629808414</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.762386540771788</v>
+        <v>0.7684899433782588</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8396947842585473</v>
+        <v>0.8412210109872429</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>724</v>
@@ -2357,19 +2357,19 @@
         <v>782039</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>756623</v>
+        <v>754732</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>808169</v>
+        <v>806260</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7888705628293606</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7632321059318204</v>
+        <v>0.7613250799875309</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8152292698886405</v>
+        <v>0.8133027876258391</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>470332</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>430512</v>
+        <v>433088</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>514711</v>
+        <v>512265</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1398279037401539</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1279894479165196</v>
+        <v>0.1287552892194558</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1530215843596221</v>
+        <v>0.1522944124693662</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>436</v>
@@ -2482,19 +2482,19 @@
         <v>453540</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>413637</v>
+        <v>412650</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>497326</v>
+        <v>494670</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1290130433272929</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1176622648288061</v>
+        <v>0.1173816497636625</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1414683955644699</v>
+        <v>0.1407128695869456</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>886</v>
@@ -2503,19 +2503,19 @@
         <v>923872</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>870298</v>
+        <v>870043</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>988927</v>
+        <v>982307</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1343011414091497</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1265132138594296</v>
+        <v>0.1264761105681307</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1437579705056829</v>
+        <v>0.1427956497070233</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>64769</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>49665</v>
+        <v>50627</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>81317</v>
+        <v>82193</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01925543014520829</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01476512393601077</v>
+        <v>0.01505127789267409</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02417524676788183</v>
+        <v>0.02443551756520425</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>48</v>
@@ -2553,19 +2553,19 @@
         <v>48260</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>36376</v>
+        <v>36538</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>63104</v>
+        <v>63304</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01372795905919661</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01034741790952711</v>
+        <v>0.01039340487109992</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01795053676337352</v>
+        <v>0.01800744805683071</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>111</v>
@@ -2574,19 +2574,19 @@
         <v>113029</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>93756</v>
+        <v>92171</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>134944</v>
+        <v>136211</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0164307039982526</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01362911866432208</v>
+        <v>0.01339875022333211</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01961655472073526</v>
+        <v>0.01980065647660327</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>70897</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>55707</v>
+        <v>54128</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>88462</v>
+        <v>88810</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02107745972109599</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.0165615935630775</v>
+        <v>0.01609195816513762</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02629942274820222</v>
+        <v>0.026402767368466</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>53</v>
@@ -2624,19 +2624,19 @@
         <v>53772</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>41042</v>
+        <v>40246</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>70402</v>
+        <v>67145</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01529584092696563</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.0116747760648983</v>
+        <v>0.01144831015704522</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02002634802613272</v>
+        <v>0.01910005773389245</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>119</v>
@@ -2645,19 +2645,19 @@
         <v>124669</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>102659</v>
+        <v>104525</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>149264</v>
+        <v>152088</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01812285543183242</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01492328299945593</v>
+        <v>0.01519458202305447</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02169818339863142</v>
+        <v>0.02210861249513845</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>82669</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>66688</v>
+        <v>66941</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>101931</v>
+        <v>103720</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02457712923681259</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01982601161382589</v>
+        <v>0.0199013694291145</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03030361327563795</v>
+        <v>0.03083546416945515</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>67</v>
@@ -2695,19 +2695,19 @@
         <v>71177</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>55661</v>
+        <v>55554</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>89313</v>
+        <v>90064</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02024679468151807</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01583317148146792</v>
+        <v>0.01580284284345036</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02540587446380078</v>
+        <v>0.02561945268218975</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>145</v>
@@ -2716,19 +2716,19 @@
         <v>153846</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>130599</v>
+        <v>130077</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>180786</v>
+        <v>180702</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02236418066538332</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01898489890191539</v>
+        <v>0.01890898506230585</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02628050580442403</v>
+        <v>0.02626821648380298</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>2674983</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2626243</v>
+        <v>2629576</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2724199</v>
+        <v>2721126</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.7952620771567293</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7807717974789836</v>
+        <v>0.7817626184452426</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8098936684089754</v>
+        <v>0.808980208069659</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2707</v>
@@ -2766,19 +2766,19 @@
         <v>2888710</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2835943</v>
+        <v>2837833</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2933185</v>
+        <v>2930543</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8217163620050267</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8067063721274742</v>
+        <v>0.8072438243046982</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8343674405203967</v>
+        <v>0.8336159762172335</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5252</v>
@@ -2787,19 +2787,19 @@
         <v>5563693</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5490662</v>
+        <v>5499606</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5632124</v>
+        <v>5635526</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.808781118495382</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7981647026270412</v>
+        <v>0.799464861843099</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.818728655217032</v>
+        <v>0.8192231917020532</v>
       </c>
     </row>
     <row r="33">
